--- a/biology/Botanique/Hylotelephium_sieboldii/Hylotelephium_sieboldii.xlsx
+++ b/biology/Botanique/Hylotelephium_sieboldii/Hylotelephium_sieboldii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylotelephium sieboldii est une espèce de plante succulente ornementale de la famille des Crassulacées originaire du Japon.
 Elle est cultivée dans les jardins sous le nom de "Sainte-Thérèse", en raison de la période de floraison proche du 15 octobre, jour de la fête dédiée à Sainte-Thérèse d'Avila. Elle résiste au gel en perdant ses rameaux et en passant l'hiver sous forme de petits bourgeons au ras du sol.
@@ -513,7 +525,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sedum sieboldii Regel (The plant list http://www.theplantlist.org/ consulté le 24 décembre 2016)</t>
         </is>
@@ -543,15 +557,17 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (2 juillet 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (2 juillet 2016) :
 variété Hylotelephium sieboldii var. chinense
 variété Hylotelephium sieboldii var. ettyuense
-Selon NCBI  (2 juillet 2016)[3] :
+Selon NCBI  (2 juillet 2016) :
 variété Hylotelephium sieboldii var. ettyuense
 variété Hylotelephium sieboldii var. sieboldii
-Selon Tropicos                                           (2 juillet 2016)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (2 juillet 2016) (Attention liste brute contenant possiblement des synonymes) :
 variété Hylotelephium sieboldii var. chinense H. Ohba
 variété Hylotelephium sieboldii var. ettyuense (Tomida) H. Ohba
 variété Hylotelephium sieboldii var. sieboldii</t>
